--- a/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
+++ b/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A9E8B-20BB-4FC9-AD72-AF0C7CCB21A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C26FE4-5123-47A6-BD28-578EE557B831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="2550" yWindow="765" windowWidth="16440" windowHeight="13680" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>VILLAMIZAR RUEDA JUAN DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -250,43 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEBEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -633,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +611,10 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,8 +627,11 @@
       <c r="D3" s="8">
         <v>43984</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>623</v>
       </c>
@@ -674,8 +644,11 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>648</v>
       </c>
@@ -688,8 +661,11 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>673</v>
       </c>
@@ -702,8 +678,11 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>698</v>
       </c>
@@ -716,8 +695,11 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>907</v>
       </c>
@@ -730,8 +712,11 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2072</v>
       </c>
@@ -744,8 +729,11 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>4056</v>
       </c>
@@ -759,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1130</v>
       </c>
@@ -770,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>770</v>
       </c>
@@ -784,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>682</v>
       </c>
@@ -797,8 +785,11 @@
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>3534</v>
       </c>
@@ -811,8 +802,11 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3198</v>
       </c>
@@ -825,8 +819,11 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>4297</v>
       </c>
@@ -839,8 +836,11 @@
       <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>4357</v>
       </c>
@@ -853,8 +853,11 @@
       <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>661</v>
       </c>
@@ -867,8 +870,11 @@
       <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1419</v>
       </c>
@@ -881,8 +887,11 @@
       <c r="D19" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>631</v>
       </c>
@@ -895,8 +904,11 @@
       <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>686</v>
       </c>
@@ -910,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>663</v>
       </c>
@@ -921,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>745</v>
       </c>
@@ -934,8 +946,11 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>688</v>
       </c>
@@ -948,8 +963,11 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2966</v>
       </c>
@@ -962,8 +980,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>4298</v>
       </c>
@@ -976,8 +997,11 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>4299</v>
       </c>
@@ -990,8 +1014,11 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3200</v>
       </c>
@@ -1002,7 +1029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>3246</v>
       </c>
@@ -1015,8 +1042,11 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1409</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>640</v>
       </c>
@@ -1043,8 +1076,11 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2836</v>
       </c>
@@ -1057,8 +1093,11 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>4356</v>
       </c>
@@ -1072,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>696</v>
       </c>
@@ -1085,8 +1124,11 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2335</v>
       </c>
@@ -1099,8 +1141,11 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>669</v>
       </c>
@@ -1113,19 +1158,26 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="10">
-        <f>COUNTA(D4:DX36)</f>
+        <f>COUNTA(D4:D36)</f>
         <v>30</v>
+      </c>
+      <c r="E37" s="10">
+        <f>COUNTA(E4:E36)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(LEN($H37)&gt;0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
+++ b/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C26FE4-5123-47A6-BD28-578EE557B831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7D561-2B7C-4313-9AE7-42767921B147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="765" windowWidth="16440" windowHeight="13680" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E37"/>
+  <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
     <col min="4" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,8 +630,11 @@
       <c r="E3" s="8">
         <v>43998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="8">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>623</v>
       </c>
@@ -647,8 +650,11 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>648</v>
       </c>
@@ -664,8 +670,11 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>673</v>
       </c>
@@ -681,8 +690,11 @@
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>698</v>
       </c>
@@ -698,8 +710,11 @@
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>907</v>
       </c>
@@ -715,8 +730,11 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2072</v>
       </c>
@@ -732,8 +750,11 @@
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>4056</v>
       </c>
@@ -746,8 +767,9 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1130</v>
       </c>
@@ -757,8 +779,9 @@
       <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>770</v>
       </c>
@@ -771,8 +794,11 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>682</v>
       </c>
@@ -788,8 +814,11 @@
       <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>3534</v>
       </c>
@@ -805,8 +834,9 @@
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3198</v>
       </c>
@@ -822,8 +852,11 @@
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>4297</v>
       </c>
@@ -839,8 +872,11 @@
       <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>4357</v>
       </c>
@@ -856,8 +892,11 @@
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>661</v>
       </c>
@@ -873,8 +912,9 @@
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1419</v>
       </c>
@@ -890,8 +930,11 @@
       <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>631</v>
       </c>
@@ -907,8 +950,11 @@
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>686</v>
       </c>
@@ -921,8 +967,11 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>663</v>
       </c>
@@ -932,8 +981,9 @@
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>745</v>
       </c>
@@ -949,8 +999,11 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>688</v>
       </c>
@@ -966,8 +1019,11 @@
       <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2966</v>
       </c>
@@ -983,8 +1039,11 @@
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>4298</v>
       </c>
@@ -1000,8 +1059,11 @@
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>4299</v>
       </c>
@@ -1017,8 +1079,11 @@
       <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3200</v>
       </c>
@@ -1028,8 +1093,9 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>3246</v>
       </c>
@@ -1045,8 +1111,11 @@
       <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1409</v>
       </c>
@@ -1062,8 +1131,11 @@
       <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>640</v>
       </c>
@@ -1079,8 +1151,9 @@
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2836</v>
       </c>
@@ -1096,8 +1169,11 @@
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>4356</v>
       </c>
@@ -1110,8 +1186,11 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>696</v>
       </c>
@@ -1127,8 +1206,11 @@
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2335</v>
       </c>
@@ -1144,8 +1226,11 @@
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>669</v>
       </c>
@@ -1161,8 +1246,11 @@
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>3</v>
       </c>
@@ -1172,6 +1260,10 @@
       </c>
       <c r="E37" s="10">
         <f>COUNTA(E4:E36)</f>
+        <v>26</v>
+      </c>
+      <c r="F37" s="10">
+        <f>COUNTA(F4:F36)</f>
         <v>26</v>
       </c>
     </row>

--- a/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
+++ b/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7D561-2B7C-4313-9AE7-42767921B147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AEF2D6-93F1-4B65-8EA1-DAE9A8F24C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Faltas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -155,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +185,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +923,9 @@
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -1264,7 +1277,7 @@
       </c>
       <c r="F37" s="10">
         <f>COUNTA(F4:F36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
+++ b/2020/cursos/informatica/Decimo grado/Listados Informatica 10-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AEF2D6-93F1-4B65-8EA1-DAE9A8F24C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BDC93B-0B68-4704-8803-8602A6FE9C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Faltas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -223,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,10 +613,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F37"/>
+  <dimension ref="A3:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +628,12 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,8 +652,11 @@
       <c r="F3" s="8">
         <v>44019</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>623</v>
       </c>
@@ -664,8 +675,11 @@
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>648</v>
       </c>
@@ -684,8 +698,9 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>673</v>
       </c>
@@ -704,8 +719,11 @@
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>698</v>
       </c>
@@ -724,8 +742,11 @@
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>907</v>
       </c>
@@ -744,8 +765,11 @@
       <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2072</v>
       </c>
@@ -764,8 +788,11 @@
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>4056</v>
       </c>
@@ -779,8 +806,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1130</v>
       </c>
@@ -791,8 +821,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>770</v>
       </c>
@@ -808,8 +841,9 @@
       <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>682</v>
       </c>
@@ -828,8 +862,11 @@
       <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>3534</v>
       </c>
@@ -846,8 +883,11 @@
         <v>4</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>3198</v>
       </c>
@@ -866,8 +906,11 @@
       <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>4297</v>
       </c>
@@ -886,8 +929,11 @@
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>4357</v>
       </c>
@@ -906,8 +952,11 @@
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>661</v>
       </c>
@@ -926,8 +975,11 @@
       <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1419</v>
       </c>
@@ -946,8 +998,9 @@
       <c r="F19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>631</v>
       </c>
@@ -966,8 +1019,11 @@
       <c r="F20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>686</v>
       </c>
@@ -983,8 +1039,11 @@
       <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>663</v>
       </c>
@@ -995,8 +1054,9 @@
         <v>23</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>745</v>
       </c>
@@ -1015,8 +1075,11 @@
       <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>688</v>
       </c>
@@ -1035,8 +1098,11 @@
       <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2966</v>
       </c>
@@ -1055,8 +1121,11 @@
       <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>4298</v>
       </c>
@@ -1075,8 +1144,11 @@
       <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>4299</v>
       </c>
@@ -1095,8 +1167,11 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3200</v>
       </c>
@@ -1107,8 +1182,11 @@
         <v>29</v>
       </c>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>3246</v>
       </c>
@@ -1127,8 +1205,11 @@
       <c r="F29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1409</v>
       </c>
@@ -1147,8 +1228,11 @@
       <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>640</v>
       </c>
@@ -1165,8 +1249,9 @@
         <v>4</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2836</v>
       </c>
@@ -1185,8 +1270,11 @@
       <c r="F32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>4356</v>
       </c>
@@ -1202,8 +1290,9 @@
       <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>696</v>
       </c>
@@ -1222,8 +1311,11 @@
       <c r="F34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2335</v>
       </c>
@@ -1242,8 +1334,9 @@
       <c r="F35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>669</v>
       </c>
@@ -1262,8 +1355,11 @@
       <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>3</v>
       </c>
@@ -1278,6 +1374,10 @@
       <c r="F37" s="10">
         <f>COUNTA(F4:F36)</f>
         <v>27</v>
+      </c>
+      <c r="G37" s="10">
+        <f>COUNTA(G4:G36)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
